--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_13_23.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_13_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1156678.209354286</v>
+        <v>1154159.540939807</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673442</v>
+        <v>603248.4937673458</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>21.33978984657534</v>
       </c>
       <c r="G2" t="n">
-        <v>383.3736995517837</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>233.8447291789213</v>
+        <v>342.4025212312997</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>85.36610313819131</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>159.2895261491923</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>163.0414221154284</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>194.5727296124811</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>291.0289604797182</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>182.0504627910873</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1385,10 +1385,10 @@
         <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
-        <v>289.5687166806773</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238055</v>
+        <v>22.60777203238067</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114119</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>201.764089379378</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>250.9558092037176</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458129</v>
+        <v>87.0543222645813</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035366</v>
+        <v>9.753166794035423</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>123.253538246862</v>
+        <v>123.2535382468621</v>
       </c>
       <c r="T12" t="n">
         <v>189.655441187015</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>39.34836333042216</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>133.7786258325295</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.8050985482227</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.7927049400679</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034049</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146355</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>185.9226570076762</v>
       </c>
       <c r="T13" t="n">
         <v>218.6059168754546</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1997994941144</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>304.3915154833937</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1661,7 +1661,7 @@
         <v>199.1970568374742</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9088959876463</v>
+        <v>200.6173698503577</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1768,7 +1768,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1813,16 +1813,16 @@
         <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
-        <v>168.5274800422133</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>170.4601135630332</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695618</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881295</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2059,13 +2059,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>79.9081607862888</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,13 +2239,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>82.47290449300785</v>
+        <v>48.85497112745836</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>55.5207962406042</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>68.17501931583797</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695514</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819378</v>
+        <v>64.36993339924473</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>4.019807611472007</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>39.83255574579544</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2965,7 +2965,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>253.2918698186441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3089,7 +3089,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717414</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3199,13 +3199,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>91.89996056624841</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>11.77415159214003</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710078</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>47.88058113793409</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462229</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,10 +3472,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,10 +3661,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>123.9815576456784</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3673,10 +3673,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>253.2918698186437</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3913,7 +3913,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3958,10 +3958,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>36.22494343870252</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>115.7063133373728</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,19 +4141,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>20.92847288552876</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,13 +4189,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>245.8796921214435</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1604.229622059685</v>
+        <v>858.9396732896246</v>
       </c>
       <c r="C2" t="n">
-        <v>1235.267105119273</v>
+        <v>858.9396732896246</v>
       </c>
       <c r="D2" t="n">
-        <v>1235.267105119273</v>
+        <v>858.9396732896246</v>
       </c>
       <c r="E2" t="n">
-        <v>849.4788525210286</v>
+        <v>858.9396732896246</v>
       </c>
       <c r="F2" t="n">
-        <v>438.492947731421</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
@@ -4331,7 +4331,7 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
         <v>795.7553530872915</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.758267664335</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1977.695380320764</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="W2" t="n">
-        <v>1977.695380320764</v>
+        <v>1622.544763526516</v>
       </c>
       <c r="X2" t="n">
-        <v>1604.229622059685</v>
+        <v>1249.079005265436</v>
       </c>
       <c r="Y2" t="n">
-        <v>1604.229622059685</v>
+        <v>858.9396732896246</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
@@ -4407,25 +4407,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>979.6730931919906</v>
       </c>
       <c r="M3" t="n">
-        <v>956.284402521753</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N3" t="n">
-        <v>1343.569531118698</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878149</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710446</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q3" t="n">
         <v>2538.001278676482</v>
@@ -4446,10 +4446,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1412.134398099142</v>
+        <v>1502.660066001257</v>
       </c>
       <c r="C5" t="n">
-        <v>1043.17188115873</v>
+        <v>1502.660066001257</v>
       </c>
       <c r="D5" t="n">
-        <v>684.90618255198</v>
+        <v>1502.660066001257</v>
       </c>
       <c r="E5" t="n">
-        <v>299.1179299537358</v>
+        <v>1116.871813403012</v>
       </c>
       <c r="F5" t="n">
-        <v>62.91113280331017</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800311</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362824</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
         <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="W5" t="n">
-        <v>2562.339328400155</v>
+        <v>1876.125824262336</v>
       </c>
       <c r="X5" t="n">
-        <v>2188.873570139076</v>
+        <v>1502.660066001257</v>
       </c>
       <c r="Y5" t="n">
-        <v>1798.734238163264</v>
+        <v>1502.660066001257</v>
       </c>
     </row>
     <row r="6">
@@ -4620,43 +4620,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J6" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>590.2049751143493</v>
+        <v>590.2049751143495</v>
       </c>
       <c r="L6" t="n">
-        <v>884.908532145821</v>
+        <v>884.9085321458213</v>
       </c>
       <c r="M6" t="n">
         <v>1248.170551105041</v>
       </c>
       <c r="N6" t="n">
-        <v>1635.455679701986</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O6" t="n">
         <v>1967.526114878148</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>157.1019332386097</v>
+        <v>751.3310369968233</v>
       </c>
       <c r="C7" t="n">
-        <v>157.1019332386097</v>
+        <v>582.3948540689164</v>
       </c>
       <c r="D7" t="n">
-        <v>157.1019332386097</v>
+        <v>432.2782146565806</v>
       </c>
       <c r="E7" t="n">
-        <v>157.1019332386097</v>
+        <v>284.3651210741875</v>
       </c>
       <c r="F7" t="n">
-        <v>157.1019332386097</v>
+        <v>137.4751735762772</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4747,28 +4747,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1372.964202328269</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1149.985721523005</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1149.985721523005</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>895.3012333171177</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W7" t="n">
-        <v>605.8840632801572</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="X7" t="n">
-        <v>377.8945123821399</v>
+        <v>1153.772080970593</v>
       </c>
       <c r="Y7" t="n">
-        <v>157.1019332386097</v>
+        <v>932.979501827063</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2244.12194900241</v>
+        <v>1032.061124352531</v>
       </c>
       <c r="C8" t="n">
-        <v>1875.159432061998</v>
+        <v>1032.061124352531</v>
       </c>
       <c r="D8" t="n">
-        <v>1516.893733455248</v>
+        <v>1032.061124352531</v>
       </c>
       <c r="E8" t="n">
-        <v>1131.105480857004</v>
+        <v>646.2728717542864</v>
       </c>
       <c r="F8" t="n">
-        <v>720.1195760673961</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G8" t="n">
-        <v>305.0471259123926</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410103</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066532</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W8" t="n">
-        <v>2630.721789066532</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X8" t="n">
-        <v>2630.721789066532</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y8" t="n">
-        <v>2630.721789066532</v>
+        <v>1418.660964416652</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4951,13 +4951,13 @@
         <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2332.418671408905</v>
+        <v>1838.026121952488</v>
       </c>
       <c r="C11" t="n">
-        <v>1963.456154468493</v>
+        <v>1469.063605012077</v>
       </c>
       <c r="D11" t="n">
-        <v>1605.190455861743</v>
+        <v>1110.797906405327</v>
       </c>
       <c r="E11" t="n">
-        <v>1219.402203263498</v>
+        <v>926.9085500506932</v>
       </c>
       <c r="F11" t="n">
-        <v>808.4162984738909</v>
+        <v>515.9226452610856</v>
       </c>
       <c r="G11" t="n">
-        <v>393.840852803538</v>
+        <v>101.3471995907326</v>
       </c>
       <c r="H11" t="n">
-        <v>101.3471995907327</v>
+        <v>101.3471995907326</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469167</v>
+        <v>78.51106622469158</v>
       </c>
       <c r="J11" t="n">
         <v>308.7333971386824</v>
       </c>
       <c r="K11" t="n">
-        <v>704.515510442031</v>
+        <v>704.5155104420301</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301223</v>
+        <v>1232.419981301221</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.484858878107</v>
+        <v>1851.484858878104</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765421</v>
+        <v>2485.180661765417</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687096</v>
+        <v>3070.226377687092</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856276</v>
+        <v>3535.048359856273</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882233</v>
+        <v>3835.937563882229</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234583</v>
+        <v>3925.553311234579</v>
       </c>
       <c r="S11" t="n">
-        <v>3826.588132455653</v>
+        <v>3925.553311234579</v>
       </c>
       <c r="T11" t="n">
-        <v>3622.786021971433</v>
+        <v>3925.553311234579</v>
       </c>
       <c r="U11" t="n">
-        <v>3369.295305604041</v>
+        <v>3672.062594867187</v>
       </c>
       <c r="V11" t="n">
-        <v>3369.295305604041</v>
+        <v>3340.999707523616</v>
       </c>
       <c r="W11" t="n">
-        <v>3016.526650333927</v>
+        <v>2988.231052253502</v>
       </c>
       <c r="X11" t="n">
-        <v>3016.526650333927</v>
+        <v>2614.765293992422</v>
       </c>
       <c r="Y11" t="n">
-        <v>2626.387318358115</v>
+        <v>2224.62596201661</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>618.1656010111994</v>
       </c>
       <c r="E12" t="n">
-        <v>458.928146005744</v>
+        <v>458.9281460057439</v>
       </c>
       <c r="F12" t="n">
         <v>312.3935880326289</v>
@@ -5112,28 +5112,28 @@
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503043</v>
+        <v>88.36274985503039</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469167</v>
+        <v>78.51106622469158</v>
       </c>
       <c r="J12" t="n">
-        <v>196.8120623792123</v>
+        <v>196.8120623792121</v>
       </c>
       <c r="K12" t="n">
-        <v>477.1621322376491</v>
+        <v>477.1621322376486</v>
       </c>
       <c r="L12" t="n">
-        <v>900.4499396649578</v>
+        <v>480.1171086843951</v>
       </c>
       <c r="M12" t="n">
-        <v>1413.763713908847</v>
+        <v>993.4308829282833</v>
       </c>
       <c r="N12" t="n">
-        <v>1534.739190279348</v>
+        <v>1534.739190279349</v>
       </c>
       <c r="O12" t="n">
-        <v>2007.710743145096</v>
+        <v>2007.710743145097</v>
       </c>
       <c r="P12" t="n">
         <v>2367.97904598525</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>619.655272787986</v>
+        <v>1004.081882663713</v>
       </c>
       <c r="C13" t="n">
-        <v>619.655272787986</v>
+        <v>835.1456997358063</v>
       </c>
       <c r="D13" t="n">
-        <v>619.6552727879861</v>
+        <v>685.0290603234705</v>
       </c>
       <c r="E13" t="n">
-        <v>471.7421792055929</v>
+        <v>537.1159667410774</v>
       </c>
       <c r="F13" t="n">
-        <v>336.6122541222302</v>
+        <v>390.226019243167</v>
       </c>
       <c r="G13" t="n">
-        <v>169.132356598773</v>
+        <v>222.7461217197096</v>
       </c>
       <c r="H13" t="n">
-        <v>169.132356598773</v>
+        <v>78.51106622469158</v>
       </c>
       <c r="I13" t="n">
-        <v>78.51106622469167</v>
+        <v>78.51106622469158</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600396</v>
+        <v>139.0818334600394</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457696</v>
+        <v>368.4550473457692</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888903</v>
+        <v>717.5002252888901</v>
       </c>
       <c r="M13" t="n">
         <v>1095.908548779219</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542991</v>
+        <v>1470.75378454299</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715846</v>
+        <v>1800.967734715845</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.002133082518</v>
+        <v>2060.002133082517</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551101</v>
+        <v>2155.9090435511</v>
       </c>
       <c r="R13" t="n">
-        <v>2076.102739014269</v>
+        <v>2155.9090435511</v>
       </c>
       <c r="S13" t="n">
-        <v>2076.102739014269</v>
+        <v>1968.108379906983</v>
       </c>
       <c r="T13" t="n">
-        <v>1855.288681564315</v>
+        <v>1747.294322457029</v>
       </c>
       <c r="U13" t="n">
-        <v>1566.197975004603</v>
+        <v>1747.294322457029</v>
       </c>
       <c r="V13" t="n">
-        <v>1311.513486798716</v>
+        <v>1492.609834251142</v>
       </c>
       <c r="W13" t="n">
-        <v>1022.096316761756</v>
+        <v>1492.609834251142</v>
       </c>
       <c r="X13" t="n">
-        <v>1022.096316761756</v>
+        <v>1264.620283353124</v>
       </c>
       <c r="Y13" t="n">
-        <v>801.3037376182257</v>
+        <v>1043.827704209594</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2266.424947555046</v>
+        <v>2317.224468905843</v>
       </c>
       <c r="C14" t="n">
-        <v>1897.462430614635</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D14" t="n">
         <v>1589.996253358682</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760437</v>
+        <v>1204.208000760438</v>
       </c>
       <c r="F14" t="n">
         <v>793.22209597083</v>
       </c>
       <c r="G14" t="n">
-        <v>379.2389888872365</v>
+        <v>379.2389888872364</v>
       </c>
       <c r="H14" t="n">
         <v>92.81162322608056</v>
@@ -5288,7 +5288,7 @@
         <v>2182.462224957691</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874796</v>
+        <v>2919.747202874797</v>
       </c>
       <c r="O14" t="n">
         <v>3602.609239333935</v>
@@ -5306,22 +5306,22 @@
         <v>4555.113898070877</v>
       </c>
       <c r="T14" t="n">
-        <v>4353.904749750195</v>
+        <v>4353.904749750196</v>
       </c>
       <c r="U14" t="n">
-        <v>4100.461420469745</v>
+        <v>4151.260941820542</v>
       </c>
       <c r="V14" t="n">
-        <v>3769.398533126174</v>
+        <v>3820.198054476971</v>
       </c>
       <c r="W14" t="n">
-        <v>3416.629877856059</v>
+        <v>3467.429399206857</v>
       </c>
       <c r="X14" t="n">
-        <v>3043.16411959498</v>
+        <v>3093.963640945777</v>
       </c>
       <c r="Y14" t="n">
-        <v>2653.024787619168</v>
+        <v>2703.824308969965</v>
       </c>
     </row>
     <row r="15">
@@ -5355,22 +5355,22 @@
         <v>92.81162322608056</v>
       </c>
       <c r="J15" t="n">
-        <v>240.4596049779265</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="K15" t="n">
-        <v>570.9683475412853</v>
+        <v>423.3203657894393</v>
       </c>
       <c r="L15" t="n">
-        <v>1061.700680385037</v>
+        <v>914.0526986331906</v>
       </c>
       <c r="M15" t="n">
-        <v>1280.534873959581</v>
+        <v>1506.071052885318</v>
       </c>
       <c r="N15" t="n">
-        <v>1902.630837358917</v>
+        <v>2128.167016284654</v>
       </c>
       <c r="O15" t="n">
-        <v>1902.630837358917</v>
+        <v>2128.167016284654</v>
       </c>
       <c r="P15" t="n">
         <v>2322.214355784993</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1015.754398433617</v>
+        <v>865.6377590212817</v>
       </c>
       <c r="C16" t="n">
-        <v>846.8182155057104</v>
+        <v>696.7015760933748</v>
       </c>
       <c r="D16" t="n">
-        <v>696.7015760933746</v>
+        <v>696.7015760933748</v>
       </c>
       <c r="E16" t="n">
-        <v>548.7884825109816</v>
+        <v>548.7884825109817</v>
       </c>
       <c r="F16" t="n">
-        <v>401.8985350130712</v>
+        <v>401.8985350130713</v>
       </c>
       <c r="G16" t="n">
         <v>234.6843401876502</v>
@@ -5440,7 +5440,7 @@
         <v>431.4224730861982</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693323</v>
+        <v>819.1842911693327</v>
       </c>
       <c r="M16" t="n">
         <v>1238.413883213792</v>
@@ -5461,25 +5461,25 @@
         <v>2360.516429368669</v>
       </c>
       <c r="S16" t="n">
-        <v>2360.516429368669</v>
+        <v>2177.3462391076</v>
       </c>
       <c r="T16" t="n">
-        <v>2360.516429368669</v>
+        <v>1957.667456821982</v>
       </c>
       <c r="U16" t="n">
-        <v>2190.286651548252</v>
+        <v>1957.667456821982</v>
       </c>
       <c r="V16" t="n">
-        <v>1935.602163342365</v>
+        <v>1785.48552393003</v>
       </c>
       <c r="W16" t="n">
-        <v>1646.184993305405</v>
+        <v>1496.068353893069</v>
       </c>
       <c r="X16" t="n">
-        <v>1418.195442407387</v>
+        <v>1268.078802995052</v>
       </c>
       <c r="Y16" t="n">
-        <v>1197.402863263857</v>
+        <v>1047.286223851521</v>
       </c>
     </row>
     <row r="17">
@@ -5489,55 +5489,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192684</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075825</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.61155333239</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5546,19 +5546,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,25 +5586,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5647,46 +5647,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832662</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855603</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199801</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1871.240688199801</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1581.82351816284</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5747,19 +5747,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
@@ -5768,7 +5768,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852256</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>763.7541388327645</v>
+        <v>513.8536007400719</v>
       </c>
       <c r="C22" t="n">
-        <v>680.4481746984131</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="D22" t="n">
-        <v>530.3315352860774</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E22" t="n">
-        <v>382.4184417036843</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057739</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057739</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5911,10 +5911,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5929,31 +5929,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138418</v>
       </c>
       <c r="Y22" t="n">
-        <v>945.4026036630042</v>
+        <v>695.5020655703116</v>
       </c>
     </row>
     <row r="23">
@@ -5978,40 +5978,40 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
         <v>4606.285157492578</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,16 +6060,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>763.7541388327643</v>
+        <v>580.8993044876686</v>
       </c>
       <c r="C25" t="n">
-        <v>594.8179559048574</v>
+        <v>411.9631215597617</v>
       </c>
       <c r="D25" t="n">
-        <v>444.7013164925218</v>
+        <v>411.9631215597617</v>
       </c>
       <c r="E25" t="n">
-        <v>296.7882229101288</v>
+        <v>411.9631215597617</v>
       </c>
       <c r="F25" t="n">
-        <v>149.8982754122185</v>
+        <v>411.9631215597617</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797189</v>
+        <v>244.7670222746421</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6157,10 +6157,10 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
@@ -6172,25 +6172,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704551</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806534</v>
+        <v>983.3403484614385</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.402603663004</v>
+        <v>762.5477693179083</v>
       </c>
     </row>
     <row r="26">
@@ -6203,70 +6203,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.793114229131</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="D28" t="n">
-        <v>407.9027098310023</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
         <v>826.1405381797745</v>
@@ -6397,16 +6397,16 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
         <v>2264.108249235165</v>
@@ -6424,10 +6424,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614389</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179088</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6455,19 +6455,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6476,34 +6476,34 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,25 +6534,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>874.8686257536381</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831766</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V31" t="n">
-        <v>1653.302830625879</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W31" t="n">
-        <v>1363.885660588918</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X31" t="n">
-        <v>1135.896109690901</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y31" t="n">
-        <v>915.1035305473707</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="32">
@@ -6692,28 +6692,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6722,19 +6722,19 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
         <v>3467.980956852888</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,28 +6771,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452613</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718132</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>800.5007694647281</v>
+        <v>878.3568999154064</v>
       </c>
       <c r="C34" t="n">
-        <v>631.5645865368213</v>
+        <v>709.4207169874995</v>
       </c>
       <c r="D34" t="n">
-        <v>481.4479471244856</v>
+        <v>709.4207169874996</v>
       </c>
       <c r="E34" t="n">
-        <v>333.5348535420926</v>
+        <v>561.5076234051066</v>
       </c>
       <c r="F34" t="n">
-        <v>186.6449060441823</v>
+        <v>414.6176759071964</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797189</v>
+        <v>247.4215766220764</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>105.7097454642746</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
         <v>826.1405381797745</v>
@@ -6877,31 +6877,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T34" t="n">
-        <v>2264.108249235165</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U34" t="n">
-        <v>1975.033022579363</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V34" t="n">
-        <v>1720.348534373476</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W34" t="n">
-        <v>1430.931364336515</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X34" t="n">
-        <v>1202.941813438498</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y34" t="n">
-        <v>982.1492342949679</v>
+        <v>878.3568999154064</v>
       </c>
     </row>
     <row r="35">
@@ -6929,16 +6929,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332386</v>
@@ -6947,25 +6947,25 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,25 +7008,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273906</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239597</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>924.8344286397185</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1522.21291626627</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876695</v>
+        <v>983.3556038098238</v>
       </c>
       <c r="C37" t="n">
-        <v>580.8993044876695</v>
+        <v>814.4194208819169</v>
       </c>
       <c r="D37" t="n">
-        <v>430.7826650753336</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E37" t="n">
-        <v>382.4184417036831</v>
+        <v>516.3896878871881</v>
       </c>
       <c r="F37" t="n">
-        <v>235.5284942057728</v>
+        <v>369.4997403892777</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057728</v>
+        <v>202.3036411041576</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359457</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614394</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179092</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="38">
@@ -7160,40 +7160,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C40" t="n">
-        <v>388.6197041282753</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7333,7 +7333,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
         <v>826.1405381797745</v>
@@ -7345,37 +7345,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819236</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111692</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075785</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7482,31 +7482,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797186</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745237</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1016.58045691144</v>
+        <v>874.8686257536374</v>
       </c>
       <c r="C43" t="n">
-        <v>847.6442739835331</v>
+        <v>705.9324428257306</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711973</v>
+        <v>555.8158034133949</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888042</v>
+        <v>407.9027098310017</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330914</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7573,7 +7573,7 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7606,13 +7606,13 @@
         <v>1683.601903741512</v>
       </c>
       <c r="W43" t="n">
-        <v>1647.011051783227</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X43" t="n">
-        <v>1419.02150088521</v>
+        <v>1277.309669727407</v>
       </c>
       <c r="Y43" t="n">
-        <v>1198.22892174168</v>
+        <v>1056.517090583877</v>
       </c>
     </row>
     <row r="44">
@@ -7634,19 +7634,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7664,10 +7664,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263526</v>
+        <v>580.899304487669</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356194</v>
+        <v>411.9631215597622</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232836</v>
+        <v>261.8464821474263</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7807,7 +7807,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
         <v>826.1405381797745</v>
@@ -7816,7 +7816,7 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
         <v>2035.089393279803</v>
@@ -7828,28 +7828,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1977.461080510509</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1729.097755135313</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179088</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8070,13 +8070,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>294.8344935184734</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>114.3555089013349</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>168.7434581780638</v>
+        <v>168.7434581780641</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>91.70488118376238</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>199.8799072811745</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>289.5687166806773</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>97.97552699114125</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>201.764089379378</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>140.4836168515151</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>11.64242219040179</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.7927049400679</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>89.71507747034052</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.00824149146359</v>
       </c>
       <c r="S13" t="n">
-        <v>185.9226570076762</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1997994941144</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>50.29152613728922</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>50.2915261372886</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23701,16 +23701,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>117.6579715062072</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>81.67752976079476</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23780,13 +23780,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-8.722622624190989e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-8.44124770082999e-13</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,13 +23947,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>145.8014946027483</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -24127,13 +24127,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>84.77391660561999</v>
+        <v>118.3918499711695</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24254,7 +24254,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>110.0033420516646</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>72.11969353038592</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24598,16 +24598,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>115.4620467826926</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>144.5956654067404</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>139.9994244361419</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>32.89260457060003</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24977,7 +24977,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>-1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25087,13 +25087,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>73.62417772602066</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>69.4916847264255</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>98.55338150863508</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>32.89260457059999</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25549,10 +25549,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>43.26526345294945</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25561,13 +25561,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,16 +25594,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>32.89260457060048</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -25846,10 +25846,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>250.2980548978885</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>110.0033420516644</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,13 +26077,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>6.257951202384504</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>873970.1565286457</v>
+        <v>873970.1565286454</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>951078.003219847</v>
+        <v>951078.0032198469</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>956326.5261809177</v>
+        <v>956326.5261809175</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>956326.5261809175</v>
+        <v>956326.5261809174</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>956326.5261809177</v>
+        <v>956326.5261809175</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>956326.5261809174</v>
+        <v>956326.5261809175</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>956326.5261809177</v>
+        <v>956326.5261809176</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>956326.5261809175</v>
+        <v>956326.5261809176</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>956326.5261809173</v>
+        <v>956326.5261809176</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>956326.5261809176</v>
+        <v>956326.5261809174</v>
       </c>
     </row>
   </sheetData>
@@ -26317,40 +26317,40 @@
         <v>472099.017671963</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.0176719633</v>
+        <v>472099.0176719632</v>
       </c>
       <c r="E2" t="n">
-        <v>423807.2415876631</v>
+        <v>423807.2415876629</v>
       </c>
       <c r="F2" t="n">
-        <v>461540.8686918679</v>
+        <v>461540.8686918677</v>
       </c>
       <c r="G2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217538</v>
       </c>
       <c r="H2" t="n">
         <v>464109.2948217537</v>
       </c>
       <c r="I2" t="n">
+        <v>464109.2948217536</v>
+      </c>
+      <c r="J2" t="n">
         <v>464109.2948217537</v>
-      </c>
-      <c r="J2" t="n">
-        <v>464109.2948217536</v>
       </c>
       <c r="K2" t="n">
         <v>464109.2948217537</v>
       </c>
       <c r="L2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="M2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="N2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="O2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="P2" t="n">
         <v>464109.2948217537</v>
@@ -26372,19 +26372,19 @@
         <v>192627.1404403378</v>
       </c>
       <c r="E3" t="n">
-        <v>143114.1392185137</v>
+        <v>143114.1392185128</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051402</v>
+        <v>166521.3471051411</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.2362355788</v>
+        <v>11167.23623557892</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>167605.1778099826</v>
@@ -26393,13 +26393,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819077</v>
+        <v>48293.97000819068</v>
       </c>
       <c r="M3" t="n">
-        <v>37377.32855115279</v>
+        <v>37377.32855115256</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848965</v>
+        <v>43782.40655848998</v>
       </c>
       <c r="O3" t="n">
         <v>3023.297977224584</v>
@@ -26421,43 +26421,43 @@
         <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309555</v>
+        <v>87914.29116309559</v>
       </c>
       <c r="E4" t="n">
-        <v>8628.13543443824</v>
+        <v>8628.135434438238</v>
       </c>
       <c r="F4" t="n">
-        <v>8720.723770518931</v>
+        <v>8720.723770518933</v>
       </c>
       <c r="G4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="H4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="I4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="J4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="K4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="L4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="M4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="N4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="O4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="P4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214694</v>
+        <v>86093.72216214686</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26525,43 +26525,43 @@
         <v>243639.1082551351</v>
       </c>
       <c r="D6" t="n">
-        <v>83623.64550713662</v>
+        <v>83623.64550713649</v>
       </c>
       <c r="E6" t="n">
-        <v>185971.2447725643</v>
+        <v>185761.2805287201</v>
       </c>
       <c r="F6" t="n">
-        <v>186156.6693023704</v>
+        <v>186110.7643068037</v>
       </c>
       <c r="G6" t="n">
-        <v>343092.2723705235</v>
+        <v>343057.5344450878</v>
       </c>
       <c r="H6" t="n">
-        <v>354259.5086061023</v>
+        <v>354224.7706806666</v>
       </c>
       <c r="I6" t="n">
-        <v>354259.5086061021</v>
+        <v>354224.7706806667</v>
       </c>
       <c r="J6" t="n">
-        <v>186654.3307961196</v>
+        <v>186619.592870684</v>
       </c>
       <c r="K6" t="n">
-        <v>354259.5086061023</v>
+        <v>354224.7706806666</v>
       </c>
       <c r="L6" t="n">
-        <v>305965.5385979114</v>
+        <v>305930.8006724759</v>
       </c>
       <c r="M6" t="n">
-        <v>316882.1800549494</v>
+        <v>316847.442129514</v>
       </c>
       <c r="N6" t="n">
-        <v>310477.1020476125</v>
+        <v>310442.3641221766</v>
       </c>
       <c r="O6" t="n">
-        <v>351236.2106288776</v>
+        <v>351201.472703442</v>
       </c>
       <c r="P6" t="n">
-        <v>354259.5086061023</v>
+        <v>354224.7706806666</v>
       </c>
     </row>
   </sheetData>
@@ -26738,13 +26738,13 @@
         <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.170267494554</v>
+        <v>1212.170267494553</v>
       </c>
       <c r="F3" t="n">
         <v>1358.041048716386</v>
@@ -26790,37 +26790,37 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086458</v>
+        <v>981.3883278086447</v>
       </c>
       <c r="F4" t="n">
         <v>1160.145290326007</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26963,22 +26963,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.711808475759</v>
+        <v>155.7118084757591</v>
       </c>
       <c r="E3" t="n">
-        <v>122.3935669012558</v>
+        <v>122.3935669012551</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218317</v>
+        <v>145.8707812218324</v>
       </c>
       <c r="G3" t="n">
-        <v>9.93445162528792</v>
+        <v>9.934451625288148</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27015,16 +27015,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="E4" t="n">
-        <v>149.986872406353</v>
+        <v>149.9868724063521</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173611</v>
+        <v>178.7569625173622</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364165</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27039,13 +27039,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="M4" t="n">
-        <v>149.986872406353</v>
+        <v>149.9868724063521</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173609</v>
+        <v>178.7569625173622</v>
       </c>
       <c r="O4" t="n">
         <v>12.56299777364143</v>
@@ -27261,16 +27261,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="M4" t="n">
-        <v>149.986872406353</v>
+        <v>149.9868724063521</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173611</v>
+        <v>178.7569625173622</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364165</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>385.5362558951361</v>
       </c>
       <c r="G2" t="n">
-        <v>28.17400322117032</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>173.0313165627901</v>
+        <v>64.47352451041178</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>80.94049690661288</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>35.37293421254515</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
@@ -27834,7 +27834,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>243.834623626283</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>100.0350347748394</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>1.456791136633773e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29430,7 +29430,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>-3.011701440999644e-13</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30159,7 +30159,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>9.988809779315487e-13</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
         <v>38.45624955336179</v>
@@ -31291,16 +31291,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
         <v>539.9786897190645</v>
@@ -31312,7 +31312,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
@@ -31361,7 +31361,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31373,16 +31373,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31467,7 +31467,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
@@ -31476,7 +31476,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.87304630148564</v>
+        <v>4.873046301485638</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508984</v>
+        <v>49.90608543508981</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380254</v>
+        <v>187.8681175380252</v>
       </c>
       <c r="J11" t="n">
-        <v>413.5937135307173</v>
+        <v>413.5937135307171</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726046</v>
+        <v>619.8697634726043</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216959</v>
+        <v>769.0032542216954</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857412</v>
+        <v>855.6642913857406</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898373</v>
+        <v>869.5098341898369</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294394</v>
+        <v>821.0534800294389</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615126</v>
+        <v>700.7501494615121</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895579</v>
+        <v>526.2341787895575</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356977</v>
+        <v>306.1064947356975</v>
       </c>
       <c r="S11" t="n">
         <v>111.0445425951041</v>
       </c>
       <c r="T11" t="n">
-        <v>21.3317601847534</v>
+        <v>21.33176018475339</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188512</v>
+        <v>0.389843704118851</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,43 +31829,43 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969418</v>
+        <v>2.607309631969417</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191518</v>
+        <v>25.18112197191516</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596463</v>
+        <v>89.76921320596458</v>
       </c>
       <c r="J12" t="n">
-        <v>246.3335823783037</v>
+        <v>246.3335823783036</v>
       </c>
       <c r="K12" t="n">
-        <v>421.0233277202547</v>
+        <v>421.0233277202545</v>
       </c>
       <c r="L12" t="n">
-        <v>566.1178216256407</v>
+        <v>141.5392044735575</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845319</v>
+        <v>660.6327957845315</v>
       </c>
       <c r="N12" t="n">
-        <v>253.5391629626274</v>
+        <v>678.1177801147126</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431799</v>
+        <v>620.3452877431796</v>
       </c>
       <c r="P12" t="n">
-        <v>497.8817840205463</v>
+        <v>497.881784020546</v>
       </c>
       <c r="Q12" t="n">
-        <v>332.820787407184</v>
+        <v>332.8207874071838</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697579</v>
+        <v>48.42963285697576</v>
       </c>
       <c r="T12" t="n">
         <v>10.50928750780655</v>
@@ -31908,46 +31908,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236081</v>
+        <v>2.18588081023608</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737172</v>
+        <v>19.4344675673717</v>
       </c>
       <c r="I13" t="n">
-        <v>65.7353974569178</v>
+        <v>65.73539745691777</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836909</v>
+        <v>154.5417732836908</v>
       </c>
       <c r="K13" t="n">
-        <v>253.9596068619737</v>
+        <v>253.9596068619736</v>
       </c>
       <c r="L13" t="n">
-        <v>324.980861550917</v>
+        <v>324.9808615509169</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263703</v>
+        <v>342.6467528263702</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973089</v>
+        <v>334.4993788973087</v>
       </c>
       <c r="O13" t="n">
-        <v>308.9643167050054</v>
+        <v>308.9643167050053</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761892</v>
+        <v>264.372348176189</v>
       </c>
       <c r="Q13" t="n">
         <v>183.0377103916776</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570593</v>
+        <v>98.28514988570589</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929605</v>
+        <v>38.09394102929603</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826888</v>
+        <v>9.339672552826883</v>
       </c>
       <c r="U13" t="n">
         <v>0.1192298623765136</v>
@@ -32075,7 +32075,7 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>275.9770021735818</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>471.6886536848224</v>
@@ -32084,7 +32084,7 @@
         <v>634.2436048745725</v>
       </c>
       <c r="M15" t="n">
-        <v>363.178673896305</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N15" t="n">
         <v>759.7214730927639</v>
@@ -32093,7 +32093,7 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982454</v>
+        <v>329.9818210510355</v>
       </c>
       <c r="Q15" t="n">
         <v>372.8719498286953</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,31 +32303,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>364.3208035245835</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32789,16 +32789,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,31 +33251,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33287,13 +33287,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,34 +33488,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,31 +33725,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>615.1181176946642</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067208</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>569.57231719539</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>364.3208035245835</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
         <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,31 +34436,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34472,13 +34472,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
@@ -34790,13 +34790,13 @@
         <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>630.2591755145964</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>230.8362312321895</v>
       </c>
       <c r="R3" t="n">
         <v>24.58388860977092</v>
@@ -34936,19 +34936,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
         <v>308.745693963795</v>
@@ -34957,7 +34957,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,19 +35015,19 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>355.3309544215487</v>
+        <v>355.3309544215489</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235323</v>
@@ -35036,7 +35036,7 @@
         <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977094</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,13 +35091,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
@@ -35106,13 +35106,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.547809004031</v>
+        <v>232.5478090040308</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276241</v>
+        <v>399.7799124276237</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517087</v>
+        <v>533.2368392517083</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584685</v>
+        <v>625.3180581584679</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932464</v>
+        <v>640.096770593246</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077526</v>
+        <v>590.9552686077521</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062431</v>
+        <v>469.5171537062426</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151083</v>
+        <v>303.928488915108</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156553</v>
+        <v>90.52095692156536</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>119.495955711637</v>
+        <v>119.4959557116369</v>
       </c>
       <c r="K12" t="n">
-        <v>283.1818887458957</v>
+        <v>283.1818887458955</v>
       </c>
       <c r="L12" t="n">
-        <v>427.5634418457665</v>
+        <v>2.984824693683347</v>
       </c>
       <c r="M12" t="n">
-        <v>518.4987618625137</v>
+        <v>518.4987618625132</v>
       </c>
       <c r="N12" t="n">
-        <v>122.1974508792941</v>
+        <v>546.7760680313793</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987355</v>
+        <v>477.7490432987352</v>
       </c>
       <c r="P12" t="n">
-        <v>363.907376606216</v>
+        <v>363.9073766062157</v>
       </c>
       <c r="Q12" t="n">
-        <v>192.8390133211625</v>
+        <v>192.8390133211623</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701813</v>
+        <v>61.18259316701804</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360908</v>
+        <v>231.6901150360907</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112332</v>
+        <v>352.570886811233</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882109</v>
+        <v>382.2306297882108</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765375</v>
+        <v>378.6315512765373</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190451</v>
+        <v>333.5494446190449</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410827</v>
+        <v>261.6509074410825</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998326</v>
+        <v>96.87566713998318</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>149.1393755069151</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>333.8472147104634</v>
@@ -35732,7 +35732,7 @@
         <v>495.6892250946983</v>
       </c>
       <c r="M15" t="n">
-        <v>221.0446399742867</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N15" t="n">
         <v>628.3797610094306</v>
@@ -35741,7 +35741,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>423.8217357839152</v>
+        <v>196.0074136367053</v>
       </c>
       <c r="Q15" t="n">
         <v>232.8901757426738</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,16 +35966,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>224.339029438562</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,13 +36440,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,16 +36914,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>261.348781916454</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,25 +37379,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>483.7764056113309</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236314895</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>426.9760727509455</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>224.339029438562</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,16 +38099,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
